--- a/02_donnees/activité09/appreciation-habitude-j0925.xlsx
+++ b/02_donnees/activité09/appreciation-habitude-j0925.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ad6640c2f144aa/Documents/lycée/snt/activité09/analyse/jeudi-saisie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ad6640c2f144aa/Documents/lycée/snt/activité09/analyse/jeudi-debut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{543A8E39-5905-45F4-8C25-152BD94B625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C216F7D3-E096-4B0C-BCBA-40C0E0475337}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="13_ncr:1_{543A8E39-5905-45F4-8C25-152BD94B625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F30EDC1-0643-4857-8A8F-878B52945489}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="1890" windowWidth="24510" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="P34" sqref="P34:R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -706,15 +706,9 @@
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -724,9 +718,7 @@
       <c r="L3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -746,20 +738,14 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
@@ -771,34 +757,22 @@
         <v>33</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
@@ -807,39 +781,23 @@
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
@@ -850,36 +808,20 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="S7" t="s">
         <v>22</v>
@@ -893,9 +835,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -907,13 +847,9 @@
         <v>51</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="S8" t="s">
         <v>26</v>
@@ -927,39 +863,21 @@
         <v>41</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="S9" t="s">
         <v>27</v>
@@ -977,9 +895,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -989,9 +905,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:19">
@@ -1001,33 +915,23 @@
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
@@ -1036,39 +940,23 @@
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
@@ -1103,36 +991,22 @@
         <v>50</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q14" s="1"/>
     </row>
     <row r="18" spans="1:19">
       <c r="C18" s="2" t="s">
@@ -1248,24 +1122,12 @@
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1273,14 +1135,10 @@
         <v>51</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="7"/>
     </row>
@@ -1291,36 +1149,22 @@
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
@@ -1331,12 +1175,8 @@
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1349,9 +1189,7 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1363,39 +1201,23 @@
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="7"/>
     </row>
@@ -1407,35 +1229,21 @@
         <v>37</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1</v>
-      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
@@ -1447,29 +1255,21 @@
         <v>39</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
+      <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
+      <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
@@ -1480,46 +1280,22 @@
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="8" t="s">
         <v>51</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="6"/>
@@ -1547,9 +1323,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:19">
@@ -1559,12 +1333,8 @@
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1576,14 +1346,10 @@
         <v>51</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="1">
-        <v>1</v>
-      </c>
+      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:19">
@@ -1593,37 +1359,23 @@
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
+      <c r="K29" s="1"/>
       <c r="L29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:19">
@@ -1641,9 +1393,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
+      <c r="K30" s="1"/>
       <c r="L30" s="8" t="s">
         <v>51</v>
       </c>
@@ -1661,45 +1411,23 @@
       <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
-      <c r="N31" s="1">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>1</v>
-      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="6"/>
     </row>
